--- a/Pisos termicos.xlsx
+++ b/Pisos termicos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Desktop\KYNDO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B2BA006-F76A-4504-8FDD-929B499581A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1893B2-8A7B-4173-AA85-DF94023291FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{F793D0F0-CF96-474F-AC3D-C87C4347E141}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
